--- a/idis/expdata/90012.xlsx
+++ b/idis/expdata/90012.xlsx
@@ -1416,7 +1416,7 @@
         <v>166</v>
       </c>
       <c r="M2">
-        <v>1.7820541554976e-06</v>
+        <v>-1.544142043028729e-07</v>
       </c>
       <c r="N2">
         <v>-5.693646132659072e-08</v>
@@ -1913,7 +1913,7 @@
         <v>166</v>
       </c>
       <c r="M3">
-        <v>1.020860971146704e-06</v>
+        <v>-6.144924712193669e-08</v>
       </c>
       <c r="N3">
         <v>-4.163225211729571e-08</v>
@@ -2410,7 +2410,7 @@
         <v>166</v>
       </c>
       <c r="M4">
-        <v>1.567878009691707e-06</v>
+        <v>-2.098728162112178e-07</v>
       </c>
       <c r="N4">
         <v>-2.320929850582628e-07</v>
@@ -2907,7 +2907,7 @@
         <v>166</v>
       </c>
       <c r="M5">
-        <v>5.961974614052953e-07</v>
+        <v>-2.380943554463551e-08</v>
       </c>
       <c r="N5">
         <v>-2.890045706369062e-08</v>
@@ -3404,7 +3404,7 @@
         <v>166</v>
       </c>
       <c r="M6">
-        <v>8.718110004420892e-07</v>
+        <v>-8.992256354504529e-08</v>
       </c>
       <c r="N6">
         <v>-1.855702296324622e-07</v>
@@ -3901,7 +3901,7 @@
         <v>166</v>
       </c>
       <c r="M7">
-        <v>3.49865343525113e-07</v>
+        <v>-8.072866876516272e-09</v>
       </c>
       <c r="N7">
         <v>-1.73238419492459e-08</v>
@@ -4398,7 +4398,7 @@
         <v>166</v>
       </c>
       <c r="M8">
-        <v>5.012173641011668e-07</v>
+        <v>-3.930062838534965e-08</v>
       </c>
       <c r="N8">
         <v>-1.455951515571034e-07</v>
@@ -4895,7 +4895,7 @@
         <v>166</v>
       </c>
       <c r="M9">
-        <v>7.820270700108231e-07</v>
+        <v>-1.069702665265235e-07</v>
       </c>
       <c r="N9">
         <v>-6.318712943067353e-07</v>
@@ -5392,7 +5392,7 @@
         <v>166</v>
       </c>
       <c r="M10">
-        <v>2.057672314262834e-07</v>
+        <v>-1.364894448382458e-09</v>
       </c>
       <c r="N10">
         <v>-5.144588539506369e-09</v>
@@ -5889,7 +5889,7 @@
         <v>166</v>
       </c>
       <c r="M11">
-        <v>2.933306775915599e-07</v>
+        <v>-1.635523994395597e-08</v>
       </c>
       <c r="N11">
         <v>-1.065726566690129e-07</v>
@@ -6386,7 +6386,7 @@
         <v>166</v>
       </c>
       <c r="M12">
-        <v>4.43353210951773e-07</v>
+        <v>-4.609121164033094e-08</v>
       </c>
       <c r="N12">
         <v>-4.938379888290053e-07</v>
@@ -6883,7 +6883,7 @@
         <v>166</v>
       </c>
       <c r="M13">
-        <v>7.341170031238326e-07</v>
+        <v>-1.02872129316369e-07</v>
       </c>
       <c r="N13">
         <v>-1.732691803272181e-06</v>
@@ -7380,7 +7380,7 @@
         <v>166</v>
       </c>
       <c r="M14">
-        <v>1.212314301805394e-07</v>
+        <v>1.525889891828006e-09</v>
       </c>
       <c r="N14">
         <v>1.008133724604041e-08</v>
@@ -7877,7 +7877,7 @@
         <v>166</v>
       </c>
       <c r="M15">
-        <v>1.730089301872031e-07</v>
+        <v>-5.451295787302645e-09</v>
       </c>
       <c r="N15">
         <v>-6.194544913185594e-08</v>
@@ -8374,7 +8374,7 @@
         <v>166</v>
       </c>
       <c r="M16">
-        <v>2.585479309515661e-07</v>
+        <v>-1.896067231918149e-08</v>
       </c>
       <c r="N16">
         <v>-3.58216432109989e-07</v>
@@ -8871,7 +8871,7 @@
         <v>166</v>
       </c>
       <c r="M17">
-        <v>4.09286822927757e-07</v>
+        <v>-4.126624292320389e-08</v>
       </c>
       <c r="N17">
         <v>-1.277015790927287e-06</v>
@@ -9368,7 +9368,7 @@
         <v>166</v>
       </c>
       <c r="M18">
-        <v>7.093074026345107e-08</v>
+        <v>2.797364003006751e-09</v>
       </c>
       <c r="N18">
         <v>3.253043203086688e-08</v>
@@ -9865,7 +9865,7 @@
         <v>166</v>
       </c>
       <c r="M19">
-        <v>1.024237729984955e-07</v>
+        <v>-2.03501531218544e-10</v>
       </c>
       <c r="N19">
         <v>-4.034257077751521e-09</v>
@@ -10362,7 +10362,7 @@
         <v>166</v>
       </c>
       <c r="M20">
-        <v>1.529804109465115e-07</v>
+        <v>-6.105442015197526e-09</v>
       </c>
       <c r="N20">
         <v>-2.011336470329786e-07</v>
@@ -10859,7 +10859,7 @@
         <v>166</v>
       </c>
       <c r="M21">
-        <v>2.373085582331129e-07</v>
+        <v>-1.69078052177068e-08</v>
       </c>
       <c r="N21">
         <v>-9.194600523136304e-07</v>
@@ -11356,7 +11356,7 @@
         <v>166</v>
       </c>
       <c r="M22">
-        <v>3.94939394027711e-07</v>
+        <v>-6.719511518859e-08</v>
       </c>
       <c r="N22">
         <v>-5.679356777040562e-06</v>
@@ -11853,7 +11853,7 @@
         <v>166</v>
       </c>
       <c r="M23">
-        <v>4.139720958383193e-08</v>
+        <v>3.02683257712669e-09</v>
       </c>
       <c r="N23">
         <v>6.267889086033312e-08</v>
@@ -12350,7 +12350,7 @@
         <v>166</v>
       </c>
       <c r="M24">
-        <v>6.053116727533907e-08</v>
+        <v>1.911965305324076e-09</v>
       </c>
       <c r="N24">
         <v>6.652349657248027e-08</v>
@@ -12847,7 +12847,7 @@
         <v>166</v>
       </c>
       <c r="M25">
-        <v>9.103155662904185e-08</v>
+        <v>-3.425277097100912e-10</v>
       </c>
       <c r="N25">
         <v>-1.962683549656878e-08</v>
@@ -13344,7 +13344,7 @@
         <v>166</v>
       </c>
       <c r="M26">
-        <v>1.406130430253401e-07</v>
+        <v>-6.05232646683406e-09</v>
       </c>
       <c r="N26">
         <v>-5.659193611957261e-07</v>
@@ -13841,7 +13841,7 @@
         <v>166</v>
       </c>
       <c r="M27">
-        <v>2.266487364596553e-07</v>
+        <v>-2.858682889147532e-08</v>
       </c>
       <c r="N27">
         <v>-4.270057780624468e-06</v>
@@ -14338,7 +14338,7 @@
         <v>166</v>
       </c>
       <c r="M28">
-        <v>2.394700056671542e-08</v>
+        <v>2.153283760898225e-09</v>
       </c>
       <c r="N28">
         <v>7.961552309825558e-08</v>
@@ -14835,7 +14835,7 @@
         <v>166</v>
       </c>
       <c r="M29">
-        <v>3.559301941875056e-08</v>
+        <v>1.775113616818703e-09</v>
       </c>
       <c r="N29">
         <v>1.077558791550812e-07</v>
@@ -15332,7 +15332,7 @@
         <v>166</v>
       </c>
       <c r="M30">
-        <v>5.420622944690836e-08</v>
+        <v>9.452618044602047e-10</v>
       </c>
       <c r="N30">
         <v>9.289240646072274e-08</v>
@@ -15829,7 +15829,7 @@
         <v>166</v>
       </c>
       <c r="M31">
-        <v>8.419587000179398e-08</v>
+        <v>-2.156275843517811e-09</v>
       </c>
       <c r="N31">
         <v>-3.393934677246815e-07</v>
@@ -16326,7 +16326,7 @@
         <v>166</v>
       </c>
       <c r="M32">
-        <v>1.340535821028432e-07</v>
+        <v>-1.328235566361681e-08</v>
       </c>
       <c r="N32">
         <v>-3.350024110478526e-06</v>
@@ -16823,7 +16823,7 @@
         <v>166</v>
       </c>
       <c r="M33">
-        <v>2.255492400563434e-07</v>
+        <v>-7.140965921172812e-08</v>
       </c>
       <c r="N33">
         <v>-2.764693694483774e-05</v>
@@ -17320,7 +17320,7 @@
         <v>166</v>
       </c>
       <c r="M34">
-        <v>1.369610149136731e-08</v>
+        <v>6.379842388712519e-10</v>
       </c>
       <c r="N34">
         <v>4.02248990772219e-08</v>
@@ -17817,7 +17817,7 @@
         <v>166</v>
       </c>
       <c r="M35">
-        <v>2.079177985357224e-08</v>
+        <v>3.381567750066876e-10</v>
       </c>
       <c r="N35">
         <v>3.414864794961883e-08</v>
@@ -18314,7 +18314,7 @@
         <v>166</v>
       </c>
       <c r="M36">
-        <v>3.222822126605775e-08</v>
+        <v>-2.969023021703187e-10</v>
       </c>
       <c r="N36">
         <v>-4.766002289466837e-08</v>
@@ -18811,7 +18811,7 @@
         <v>166</v>
       </c>
       <c r="M37">
-        <v>5.063926268081628e-08</v>
+        <v>-2.387109242506029e-09</v>
       </c>
       <c r="N37">
         <v>-6.04674505982328e-07</v>
@@ -19308,7 +19308,7 @@
         <v>166</v>
       </c>
       <c r="M38">
-        <v>8.072500151548262e-08</v>
+        <v>-8.903739028613113e-09</v>
       </c>
       <c r="N38">
         <v>-3.587331267309354e-06</v>
@@ -19805,7 +19805,7 @@
         <v>166</v>
       </c>
       <c r="M39">
-        <v>1.329433059366188e-07</v>
+        <v>-3.830045097734051e-08</v>
       </c>
       <c r="N39">
         <v>-2.406871634480881e-05</v>
@@ -20302,7 +20302,7 @@
         <v>166</v>
       </c>
       <c r="M40">
-        <v>2.354884047144251e-07</v>
+        <v>-1.789469461272829e-07</v>
       </c>
       <c r="N40">
         <v>-0.0001703316689634089</v>
@@ -20799,7 +20799,7 @@
         <v>166</v>
       </c>
       <c r="M41">
-        <v>1.223638759045217e-08</v>
+        <v>-7.580570964117431e-10</v>
       </c>
       <c r="N41">
         <v>-1.200927022002873e-07</v>
@@ -21296,7 +21296,7 @@
         <v>166</v>
       </c>
       <c r="M42">
-        <v>1.940133900344608e-08</v>
+        <v>-1.429868677637017e-09</v>
       </c>
       <c r="N42">
         <v>-3.564445696833986e-07</v>
@@ -21793,7 +21793,7 @@
         <v>166</v>
       </c>
       <c r="M43">
-        <v>3.099880055969665e-08</v>
+        <v>-3.076169010167552e-09</v>
       </c>
       <c r="N43">
         <v>-1.199607806382809e-06</v>
@@ -22290,7 +22290,7 @@
         <v>166</v>
       </c>
       <c r="M44">
-        <v>4.988789682671311e-08</v>
+        <v>-7.357181305876306e-09</v>
       </c>
       <c r="N44">
         <v>-4.523766287197686e-06</v>
@@ -22787,7 +22787,7 @@
         <v>166</v>
       </c>
       <c r="M45">
-        <v>8.171603070868984e-08</v>
+        <v>-2.333339147842564e-08</v>
       </c>
       <c r="N45">
         <v>-2.246422003004331e-05</v>
@@ -23284,7 +23284,7 @@
         <v>166</v>
       </c>
       <c r="M46">
-        <v>1.398914421404252e-07</v>
+        <v>-9.073903415020409e-08</v>
       </c>
       <c r="N46">
         <v>-0.000135540067329658</v>
@@ -23781,7 +23781,7 @@
         <v>166</v>
       </c>
       <c r="M47">
-        <v>1.257715659672338e-08</v>
+        <v>-1.263569206628262e-09</v>
       </c>
       <c r="N47">
         <v>-4.764062561663617e-07</v>
@@ -24278,7 +24278,7 @@
         <v>166</v>
       </c>
       <c r="M48">
-        <v>2.051840473887953e-08</v>
+        <v>-2.320870753701217e-09</v>
       </c>
       <c r="N48">
         <v>-1.349417944163759e-06</v>
@@ -24775,7 +24775,7 @@
         <v>166</v>
       </c>
       <c r="M49">
-        <v>3.356336876902275e-08</v>
+        <v>-4.86785838205286e-09</v>
       </c>
       <c r="N49">
         <v>-4.388028457531344e-06</v>
@@ -25272,7 +25272,7 @@
         <v>166</v>
       </c>
       <c r="M50">
-        <v>5.531659547419757e-08</v>
+        <v>-1.329549241831864e-08</v>
       </c>
       <c r="N50">
         <v>-1.85765643533193e-05</v>
@@ -25769,7 +25769,7 @@
         <v>166</v>
       </c>
       <c r="M51">
-        <v>9.341531191302831e-08</v>
+        <v>-4.595904416229317e-08</v>
       </c>
       <c r="N51">
         <v>-9.957409256295003e-05</v>
@@ -26266,7 +26266,7 @@
         <v>166</v>
       </c>
       <c r="M52">
-        <v>1.708754486194458e-07</v>
+        <v>-1.826074276581698e-07</v>
       </c>
       <c r="N52">
         <v>-0.0006268344857936842</v>
@@ -26763,7 +26763,7 @@
         <v>166</v>
       </c>
       <c r="M53">
-        <v>1.767496932561844e-08</v>
+        <v>-1.683782392336296e-09</v>
       </c>
       <c r="N53">
         <v>-1.149589754787002e-06</v>
@@ -27260,7 +27260,7 @@
         <v>166</v>
       </c>
       <c r="M54">
-        <v>2.967451187115747e-08</v>
+        <v>-3.355964224176085e-09</v>
       </c>
       <c r="N54">
         <v>-3.43698302245258e-06</v>
@@ -27757,7 +27757,7 @@
         <v>166</v>
       </c>
       <c r="M55">
-        <v>4.980497249661213e-08</v>
+        <v>-8.486371700085901e-09</v>
       </c>
       <c r="N55">
         <v>-1.312232464453474e-05</v>
@@ -28254,7 +28254,7 @@
         <v>166</v>
       </c>
       <c r="M56">
-        <v>8.443540994983627e-08</v>
+        <v>-2.752108732348896e-08</v>
       </c>
       <c r="N56">
         <v>-6.463216899421946e-05</v>
@@ -28751,7 +28751,7 @@
         <v>166</v>
       </c>
       <c r="M57">
-        <v>1.501243615035588e-07</v>
+        <v>-1.053788556846892e-07</v>
       </c>
       <c r="N57">
         <v>-0.0003820294973827538</v>
@@ -29248,7 +29248,7 @@
         <v>166</v>
       </c>
       <c r="M58">
-        <v>3.374751871854298e-07</v>
+        <v>-3.993631766213496e-07</v>
       </c>
       <c r="N58">
         <v>-0.002534238294322492</v>
